--- a/_Mobile_test.xlsx
+++ b/_Mobile_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexPractica\YP_Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ECD084-D9D7-4B1D-A53E-595B05C1A034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9FA0A-2176-43E9-A0D6-D6AAACE4F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="96" windowWidth="17280" windowHeight="11904" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="444" windowWidth="17280" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="12" r:id="rId1"/>
@@ -1151,11 +1151,23 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,23 +1198,11 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1494,7 +1494,7 @@
   </sheetPr>
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1509,22 +1509,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
@@ -1544,22 +1544,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -1589,13 +1589,13 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1645,22 +1645,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -1772,13 +1772,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1873,22 +1873,22 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -1936,13 +1936,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -1962,13 +1962,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1988,13 +1988,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
     </row>
     <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -2029,13 +2029,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
     </row>
     <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -2072,13 +2072,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -2205,13 +2205,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
     </row>
     <row r="53" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -5275,6 +5275,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A43:E43"/>
@@ -5285,12 +5291,6 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D11" location="'Баг-репорты'!A1" display="BUG-30001" xr:uid="{AAB22E4D-91D5-4977-BE23-787C4F910005}"/>
@@ -5320,8 +5320,8 @@
   </sheetPr>
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5338,10 +5338,10 @@
       <c r="A1" s="51">
         <v>30001</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="68"/>
+      <c r="C1" s="70"/>
       <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -5475,7 +5475,7 @@
       <c r="B18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="52" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5488,10 +5488,10 @@
       <c r="A21" s="51">
         <v>30002</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
@@ -5622,7 +5622,7 @@
       <c r="B38" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="53" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5636,10 +5636,10 @@
       <c r="A41" s="51">
         <v>30003</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="70"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
@@ -5770,7 +5770,7 @@
       <c r="B58" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="53" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5784,10 +5784,10 @@
       <c r="A61" s="51">
         <v>30004</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="70"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
@@ -5918,7 +5918,7 @@
       <c r="B78" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="70" t="s">
+      <c r="C78" s="53" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5932,10 +5932,10 @@
       <c r="A81" s="51">
         <v>30005</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="68"/>
+      <c r="C81" s="70"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="35"/>
@@ -6066,7 +6066,7 @@
       <c r="B98" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="70" t="s">
+      <c r="C98" s="53" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6080,10 +6080,10 @@
       <c r="A101" s="51">
         <v>30006</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B101" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C101" s="68"/>
+      <c r="C101" s="70"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="35"/>
@@ -6212,7 +6212,7 @@
       <c r="B118" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="53" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6226,10 +6226,10 @@
       <c r="A121" s="51">
         <v>30007</v>
       </c>
-      <c r="B121" s="67" t="s">
+      <c r="B121" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="68"/>
+      <c r="C121" s="70"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="35"/>
@@ -6360,7 +6360,7 @@
       <c r="B138" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C138" s="70" t="s">
+      <c r="C138" s="53" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6374,10 +6374,10 @@
       <c r="A141" s="51">
         <v>30008</v>
       </c>
-      <c r="B141" s="67" t="s">
+      <c r="B141" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C141" s="68"/>
+      <c r="C141" s="70"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="35"/>
@@ -6504,7 +6504,7 @@
       <c r="B158" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C158" s="70" t="s">
+      <c r="C158" s="53" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6518,10 +6518,10 @@
       <c r="A161" s="51">
         <v>30009</v>
       </c>
-      <c r="B161" s="67" t="s">
+      <c r="B161" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C161" s="68"/>
+      <c r="C161" s="70"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="35"/>
@@ -6649,7 +6649,7 @@
       <c r="B178" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C178" s="70" t="s">
+      <c r="C178" s="53" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6663,10 +6663,10 @@
       <c r="A181" s="51">
         <v>30010</v>
       </c>
-      <c r="B181" s="67" t="s">
+      <c r="B181" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="C181" s="68"/>
+      <c r="C181" s="70"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="35"/>
@@ -6797,7 +6797,7 @@
       <c r="B198" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C198" s="70" t="s">
+      <c r="C198" s="53" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6811,10 +6811,10 @@
       <c r="A201" s="51">
         <v>30011</v>
       </c>
-      <c r="B201" s="67" t="s">
+      <c r="B201" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C201" s="68"/>
+      <c r="C201" s="70"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="35"/>
@@ -6947,7 +6947,7 @@
       <c r="B218" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C218" s="70" t="s">
+      <c r="C218" s="53" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6958,17 +6958,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B161:C161"/>
     <mergeCell ref="B181:C181"/>
     <mergeCell ref="B201:C201"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B81:C81"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1" xr:uid="{77F7829F-E069-4CB4-B895-58A6C3A365BF}"/>
